--- a/data/financial_statements/sofp/FITB.xlsx
+++ b/data/financial_statements/sofp/FITB.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2252 +584,2309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>12231000000</v>
+      </c>
+      <c r="C2">
         <v>10076000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11149000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23902000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>38078000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>38101000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>36405000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>38037000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>37106000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>34985000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>31990000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10034000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5525000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6793000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>6443000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6630000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4793000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>3798000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>3968000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4356000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>5759000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>6353000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>5208000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4538000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5556000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5590000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>4578000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4481000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5597000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4823000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>6606000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>8231000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>11365000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>7151000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>6059000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5702000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>8637000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5755000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3718000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4690000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>132524000000</v>
+      </c>
+      <c r="C3">
         <v>129916000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>130500000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>140475000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>152651000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>149261000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>147835000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>150161000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>148176000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>145465000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>145259000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>127353000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>115281000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>116282000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>115816000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>116049000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>99562000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>96813000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>95606000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>95905000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>97025000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>97742000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>96194000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>95544000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>97152000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>98529000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>98065000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>97594000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>97810000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>98130000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>99011000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>98899000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>101388000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>97002000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>95767000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>94704000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>96613000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>92639000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>91163000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>91274000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2187000000</v>
+      </c>
+      <c r="C4">
         <v>2155000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2118000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2102000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2120000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2101000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2073000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2072000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2088000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2090000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2053000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2009000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1995000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2053000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2074000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2092000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1861000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1896000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1915000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1966000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2003000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2018000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2041000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2052000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2065000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2084000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2144000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2185000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2239000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2264000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2298000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>2433000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>2465000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2467000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>2491000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>2528000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>2531000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>2528000000</v>
-      </c>
-      <c r="AM4">
-        <v>2540000000</v>
       </c>
       <c r="AN4">
         <v>2540000000</v>
       </c>
+      <c r="AO4">
+        <v>2540000000</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>51825000000</v>
+      </c>
+      <c r="C5">
         <v>51609000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>53168000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>49196000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>38494000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>38207000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>38363000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>37920000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>37837000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>37717000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>38888000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>39121000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>36609000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>37655000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>36259000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>35495000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>33300000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>32326000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>32455000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>32260000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>32214000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>31505000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>31849000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>31557000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>31209000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>30745000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>31517000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>29955000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>29114000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>28956000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>28144000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>26586000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>22595000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>23103000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>23008000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>20944000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>18805000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>18345000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>16461000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>15546000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>6830000000</v>
+      </c>
+      <c r="C6">
         <v>6838000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6702000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6103000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5791000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5626000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>5194000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5170000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5053000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5078000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5108000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>5130000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5446000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>5401000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5538000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>5680000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3456000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3500000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>3451000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3418000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3330000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>3289000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3290000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3206000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3169000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>3045000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>3047000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>3112000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>3213000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3186000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>3283000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>3219000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>3289000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>3367000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>3364000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>3409000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3406000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>3356000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>3338000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>3213000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>14086000000</v>
+      </c>
+      <c r="C7">
         <v>14945000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>14294000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13583000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12060000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12536000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11925000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11576000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11526000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11646000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>11598000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>11778000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10038000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>9688000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9115000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8537000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>7890000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>7150000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>7268000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>7951000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>7509000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>7710000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>7693000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>7841000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8582000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8876000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>8852000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>9584000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>8672000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>9382000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>8922000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>9333000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>8969000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>8249000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>7932000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>8069000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>9088000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8805000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>9858000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8809000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>74928000000</v>
+      </c>
+      <c r="C8">
         <v>75547000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>76282000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>70984000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>58465000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>58470000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>57555000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>56738000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>56504000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>56531000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>57647000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>58038000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>54088000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>54797000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>52986000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>51804000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>46507000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>44872000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>45089000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>45595000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>45056000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>44522000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>44873000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>44656000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>45025000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>44750000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>45560000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>44836000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>43238000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>43788000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>42647000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>41571000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>37318000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>37186000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>36795000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>34950000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>33830000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>33034000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>32197000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>30108000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>207452000000</v>
+      </c>
+      <c r="C9">
         <v>205463000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>206782000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>211459000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>211116000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>207731000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>205390000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>206899000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>204680000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>201996000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>202906000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>185391000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>169369000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>171079000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>168802000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>167853000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>146069000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>141685000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>140695000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>141500000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>142081000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>142264000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>141067000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>140200000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>142177000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>143279000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>143625000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>142430000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>141048000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>141918000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>141658000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>140470000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>138706000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>134188000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>132562000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>129654000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>130443000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>125673000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>123360000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>121382000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>5018000000</v>
+      </c>
+      <c r="C10">
         <v>6590000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>7768000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1122000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1261000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1258000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1468000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1408000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1492000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1447000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1547000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6167000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1271000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>4922000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1136000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3959000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2498000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3430000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2360000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1513000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>4186000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>5806000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>5506000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2170000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>3667000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>3620000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>4087000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>3657000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1658000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>5036000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>4262000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1613000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1700000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2878000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3299000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2985000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1664000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>3712000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>2748000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>2825000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>163690000000</v>
+      </c>
+      <c r="C11">
         <v>161652000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>161174000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>170611000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>169324000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>165108000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>162283000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>162393000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>159081000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>156683000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>156946000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>135061000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>127062000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>125347000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>125392000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>123664000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>108835000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>104342000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>104131000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>105461000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>103162000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>101452000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>101880000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>104156000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>103821000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>101271000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>101871000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>102475000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>103205000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>100893000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>103023000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>103415000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>101712000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>97292000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>95952000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>96874000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>99275000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>94126000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>93454000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>91624000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>1822000000</v>
+      </c>
+      <c r="C12">
         <v>1589000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1683000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1471000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2233000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2083000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2045000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1879000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2614000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2500000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2582000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2432000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2441000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2507000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2397000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2242000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1562000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1155000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1206000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1104000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1465000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2071000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1617000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>1655000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>1800000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2178000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2187000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2011000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2164000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>1990000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1858000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>1979000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2020000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1706000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>1824000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1669000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>1758000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>1692000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1619000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1599000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>5018000000</v>
+      </c>
+      <c r="C13">
         <v>6619000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7824000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1204000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2879000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1285000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1521000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1488000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>4758000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1473000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1600000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6239000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>3539000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>170530000000</v>
+      </c>
+      <c r="C14">
         <v>169831000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>170625000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>173204000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>172818000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>168449000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>165796000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>165680000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>163187000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>160630000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>161075000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>143660000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>130774000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>132776000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>128925000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>129865000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>112895000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>108927000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>107697000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>108078000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>108813000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>109329000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>109003000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>107981000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>109288000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>107069000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>108145000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>108143000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>107027000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>107919000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>109143000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>107007000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>105432000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>101876000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>101075000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>101528000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>102697000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>99530000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>97821000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>96048000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>13714000000</v>
+      </c>
+      <c r="C15">
         <v>11712000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>10990000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10815000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>11821000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>11419000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>12364000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14743000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>14973000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>15123000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>16327000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>16282000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>14970000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14474000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>15784000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>15483000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>14426000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>14460000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>14321000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>14800000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>14904000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>14039000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>13456000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>13658000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>14388000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>16890000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>16231000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>15305000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>15810000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>15527000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>13521000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>14055000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>14967000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>14336000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>13961000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>11233000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>9633000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>8098000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>6940000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>8320000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>5881000000</v>
+      </c>
+      <c r="C16">
         <v>7184000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6197000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>7263000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4267000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>5339000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4304000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>3881000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3409000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3292000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3169000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3576000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>2422000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>2425000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3422000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2661000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2498000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>2448000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2425000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>2418000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2144000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>2516000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>2162000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>2104000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>2269000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2516000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>2495000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>2627000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>2341000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>2614000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3356000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>3504000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>2642000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>2533000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>2018000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>2029000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>3487000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>3365000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>4322000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3094000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>19595000000</v>
+      </c>
+      <c r="C17">
         <v>18896000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>17187000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>18078000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16088000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>16758000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16668000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>18624000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>18382000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>18415000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>19496000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>19858000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>17392000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>16899000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>19206000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>18144000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>16924000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>16908000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>16746000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>17218000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>17048000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>16555000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>15618000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>15762000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>16657000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>19406000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>18726000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>17932000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>18151000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>18141000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>16877000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>17559000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>17609000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>16869000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>15979000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>13262000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>13120000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>11463000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>11262000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>11414000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>190125000000</v>
+      </c>
+      <c r="C18">
         <v>188727000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>187812000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>191282000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>188906000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>185207000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>182464000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>184304000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>181569000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>179045000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>180571000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>163518000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>148166000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>149675000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>148131000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>148009000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>129819000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>125835000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>124443000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>125296000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>125861000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>125884000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>124621000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>123743000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>125945000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>126475000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>126871000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>126075000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>125178000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>126060000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>126020000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>124566000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>123041000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>118745000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>117054000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>114790000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>115817000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>110993000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>109083000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>107462000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>3684000000</v>
+      </c>
+      <c r="C19">
         <v>3660000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>3636000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3615000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3624000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3611000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>3602000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>3592000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3635000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>3624000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3603000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>3597000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>3599000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3589000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3572000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3444000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2873000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2856000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2833000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2828000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2790000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2682000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2751000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2803000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2756000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2745000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2754000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2686000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2666000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2659000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2632000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2659000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2646000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2621000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2613000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2674000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2561000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2565000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2689000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2782000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>2116000000</v>
@@ -2745,7 +2916,7 @@
         <v>2116000000</v>
       </c>
       <c r="K20">
-        <v>1770000000</v>
+        <v>2116000000</v>
       </c>
       <c r="L20">
         <v>1770000000</v>
@@ -2757,7 +2928,7 @@
         <v>1770000000</v>
       </c>
       <c r="O20">
-        <v>1331000000</v>
+        <v>1770000000</v>
       </c>
       <c r="P20">
         <v>1331000000</v>
@@ -2820,24 +2991,27 @@
         <v>1331000000</v>
       </c>
       <c r="AJ20">
-        <v>1034000000</v>
+        <v>1331000000</v>
       </c>
       <c r="AK20">
         <v>1034000000</v>
       </c>
       <c r="AL20">
+        <v>1034000000</v>
+      </c>
+      <c r="AM20">
         <v>593000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>991000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>398000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>2051000000</v>
@@ -2956,750 +3130,768 @@
       <c r="AN21">
         <v>2051000000</v>
       </c>
+      <c r="AO21">
+        <v>2051000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>21689000000</v>
+      </c>
+      <c r="C22">
         <v>21219000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>20818000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>20501000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>20236000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>19817000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>19343000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>18863000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>18384000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>18010000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>17643000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>17677000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>18315000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>17786000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>17431000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>17184000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>16578000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>16440000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>16143000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>15707000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>14957000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>14748000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>13862000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>13625000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>13441000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>13180000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>12778000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>12570000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>12358000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>11826000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>11564000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>11380000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>11141000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>10886000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>10666000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>10363000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>10156000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>9876000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>9561000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>9084000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>7103000000</v>
+      </c>
+      <c r="C23">
         <v>7004000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>7007000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>7010000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>7024000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>6708000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>6160000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>5819000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>5676000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>5681000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>5683000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>5699000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5724000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>5427000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>5089000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>4772000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>6471000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>6073000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>5574000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>5344000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>5002000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>4637000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>3739000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>3448000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>3433000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>3286000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>3077000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2999000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2764000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2563000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2264000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>2145000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1972000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1786000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1574000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>1492000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1295000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>662000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1202000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>766000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>15211000000</v>
+      </c>
+      <c r="C24">
         <v>14620000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>16854000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>18061000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>20094000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>20408000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>20810000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>20479000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>20995000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>20835000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>20565000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>20103000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>19433000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>19634000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>19340000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>18513000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>14919000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>14519000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>14921000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>14873000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>14889000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>15049000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>15115000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>15126000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>14901000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>15473000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>15423000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>15024000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>14539000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>14527000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>14307000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>14573000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>14334000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>14112000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>14177000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>13830000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>13592000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>14087000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>13286000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>13522000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>17327000000</v>
+      </c>
+      <c r="C25">
         <v>16736000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>18970000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>20177000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22210000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>22524000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>22926000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>22595000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>23111000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>22951000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>22335000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>21873000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>21203000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>21404000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>20671000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>19844000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>16250000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>15850000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>16252000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>16204000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>16220000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>16380000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>16446000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>16457000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>16232000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>16804000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>16754000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>16355000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>15870000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>15858000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>15638000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>15904000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>15665000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>15443000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>15508000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>14864000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>14626000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>14680000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>14277000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>13920000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>207452000000</v>
+      </c>
+      <c r="C26">
         <v>205463000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>206782000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>211459000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>211116000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>207731000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>205390000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>206899000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>204680000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>201996000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>202906000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>185391000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>169369000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>171079000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>168802000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>167853000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>146069000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>141685000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>140695000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>141500000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>142081000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>142264000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>141067000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>140200000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>142177000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>143279000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>143625000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>142430000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>141048000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>141918000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>141658000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>140470000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>138706000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>134188000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>132562000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>129654000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>130443000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>125673000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>123360000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>121382000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>683386000</v>
+      </c>
+      <c r="C27">
         <v>686343000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>686152000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>685905000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>682778000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>689790000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>703739000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>711596000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>712760000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>712328000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>712202000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>711306000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>708916000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>718583000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>731474000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>739406000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>646631000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>661373000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>678162000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>684942000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>693805000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>705473000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>738872000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>750145000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>750479000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>755582000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>766346000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>770471000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>785080000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>795439000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>810054000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>815190000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>824047000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>834262000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>844489000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>847569000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>855306000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>887029000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>851474000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>874645000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28">
-        <v>54000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="P28">
         <v>54000</v>
       </c>
-      <c r="R28">
+      <c r="Q28">
         <v>54000</v>
       </c>
       <c r="S28">
@@ -3754,384 +3946,396 @@
         <v>54000</v>
       </c>
       <c r="AJ28">
-        <v>42000</v>
+        <v>54000</v>
       </c>
       <c r="AK28">
         <v>42000</v>
       </c>
       <c r="AL28">
+        <v>42000</v>
+      </c>
+      <c r="AM28">
         <v>24000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>40000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>16000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>10497000000</v>
+      </c>
+      <c r="C29">
         <v>9898000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>12268000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>14074000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>16419000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>16898000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>17732000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>17425000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>18058000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>17873000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>17227000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>16743000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>15757000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>16003000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>15133000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>14164000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>12794000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>12350000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>12801000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>12786000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12890000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>13091000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>13156000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>13251000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>13063000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>13759000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>13707000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>13243000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>12657000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>12672000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>12355000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>12685000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>12376000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>12076000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>12144000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>11455000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>11220000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>11324000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>10939000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>10707000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>6501000000</v>
+      </c>
+      <c r="C30">
         <v>8255000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>7665000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-11883000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-23378000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-25397000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-22520000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-21806000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-17375000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-18389000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-14063000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>12487000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>12984000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>7681000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>9341000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>8853000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>9633000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>10662000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>10353000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>10444000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9145000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7686000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>8248000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>9120000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>8832000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>11300000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>11653000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>10824000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>10213000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>10704000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>6915000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>5824000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>3602000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>7185000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>7902000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>5531000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>996000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>2343000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>3222000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>3630000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>18732000000</v>
+      </c>
+      <c r="C31">
         <v>18331000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>18814000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>12019000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>14700000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>12704000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>13885000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>16231000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>19731000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>16596000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>17927000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>22521000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>18509000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>14474000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>15784000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>15483000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>14426000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>14460000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>14321000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>14800000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>14904000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>14039000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>13456000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>13658000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>14388000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>16890000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>16231000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>15305000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>15810000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>15527000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>13521000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>14055000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>14967000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>14336000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>13961000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>11233000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>9633000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>8098000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>6940000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>8320000000</v>
       </c>
     </row>
